--- a/src/test/resources/input/product.xlsx
+++ b/src/test/resources/input/product.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Product</t>
   </si>
@@ -101,6 +101,54 @@
   </si>
   <si>
     <t>Lenovo Ideapad 330 Intel Core i3 7th Gen 15.6-inch Full HD Laptop (4GB RAM/1 TB HDD/Windows 10 Home/MS Office 2016/Onyx Black/2.2 kg/with DVD Drive), 81DE01PNIN</t>
+  </si>
+  <si>
+    <t>Lenovo V145-AMD-A6 15.6 inch HD Thin and Light Laptop (4GB RAM/ 500GB HDD/ Windows 10 Home with Lifetime Validity/ Black/ 2.1 kg), 81MT004BIH</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 7th Gen Intel Core i3 15.6 inch FHD Thin and Light Laptop (4GB/1TB/Windows 10/Grey/1.85Kg), 81VD0008IN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad 330 Intel Core I3 7th Gen 15.6-inch FHD Laptop (4GB RAM/1TB HDD/Windows 10 Home/2.2 Kg/Platinum Grey), 81DE02WCIN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 Intel Core I3 8th Gen 15.6-inch FHD Thin and Light Laptop ( 8GB RAM / 1TB HDD / DOS / Black / 1.85 Kg),81MV0094IN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 7th Gen Intel Core i3 15.6-inch FHD Thin and Light Laptop (4GB/1TB HDD/Windows 10/Textured Black/1.85Kg), 81VD002YIN</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad S145 81W800C3IN 15.6-inch FHD  Thin and Light Laptop (10th Gen CORE I3-1005G1/4GB/256GB SSD/Windows 10/Microsoft Office/Integrated Graphics), Grey</t>
+  </si>
+  <si>
+    <t>Lenovo V145-AMD-A6 15.6 inch HD Laptop (4GB RAM/ 1TB HDD/ Windows 10 Home/ Black/ 2.1 kg), 81MTA000IH</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 AMD A6-9225 15.6 inch HD Thin and Light Laptop (4GB/1TB/Windows 10/Grey/1.85Kg), 81N30063IN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad 330 81DE0363IN 15.6-inch FHD Laptop (8th Gen I5-8250U/8GB/1TB HDD/Windows 10/Integrated Graphics), Platinum Grey</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad 330 Intel Core i5 8th Gen 15.6-inch Full HD Laptop (8GB DDR4/1TB HDD/Windows 10 Home/Platinum Grey/ 2.2kg), 81DE008PIN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 8th Gen Intel Core I5 15.6 inch FHD Thin and Light Laptop (8 GB RAM/ 1 TB HDD/ Windows 10/ Glossy Black / 1.85 Kg), 81MV0098IN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 AMD RYZEN 3 3200U 15.6-inch FHD Laptop (4GB/1TB/Windows 10/Office 2019/Grey/1.85Kg),81UT001CIN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 Pentium Gold 15.6 inch Thin and Light Laptop (4GB/1 TB HDD/Windows 10/Microsoft Office Home and Student 2019/Black), 81MV00M1IN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad 330 Intel Core I3 7th Gen 15.6-inch HD Laptop (4GB RAM/1TB HDD/DOS/Platinum Grey/2.2Kg/with DVD-RW),81DE00GFIN</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad S145 8th Gen Intel Core i5 15.6-inch FHD Thin and Light Laptop (8GB/1TB/DOS/Textured Black/1.85Kg), 81MV0166IN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 Intel Core I3 8th Gen 15.6-inch Thin and Light FHD Laptop ( 4GB RAM / 1TB HDD / Windows 10 Home / Grey / 1.85Kg ), 81MV0091IN</t>
   </si>
 </sst>
 </file>
@@ -464,82 +512,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/input/product.xlsx
+++ b/src/test/resources/input/product.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="50">
   <si>
     <t>Product</t>
   </si>
@@ -149,6 +149,27 @@
   </si>
   <si>
     <t>Lenovo Ideapad S145 Intel Core I3 8th Gen 15.6-inch Thin and Light FHD Laptop ( 4GB RAM / 1TB HDD / Windows 10 Home / Grey / 1.85Kg ), 81MV0091IN</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad S340 81VW00CVIN 15.6-inch FHD IPS Thin and Light Laptop (10th Gen CORE I5-1035G4/8GB/512GB SSD/Windows 10/Microsoft Office/Integrated Graphics), Platinum Grey</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 Intel Core I3 8th Gen 15.6-inch FHD Thin and Light Laptop ( 4GB RAM / 1TB HDD / Windows 10 Home / Office Home and Student 2019 / Grey / 1.85kg ), 81MV009JIN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad 330 AMD A6-9225 Processor 15.6-inch HD Laptop (4GB/1TB HDD/DOS/Onyx Black/2.2Kg), 81D60079IN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 81N300F2IN 15.6-inch HD Thin and Light Laptop (7th Gen A6-9225/4GB/1TB HDD/DOS/Integrated Graphics), Grey</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad S145 AMD A6 -9225 15.6-inch HD Thin and Light Laptop (4GB/1TB/Windows 10/MS Office 2019/Textured Black/1.85Kg), 81N300B7IN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 AMD A6-9225 15.6-inch HD Thin and Light Laptop ( 4GB RAM / 1TB HDD / Windows 10 Home / Office Home and Student 2019 / Grey / 1.85kg ), 81N3004DIN</t>
+  </si>
+  <si>
+    <t>Lenovo Legion Y540 9th Gen Intel Core i5 15.6 inch FHD Gaming Laptop -Lenovo 2TB External Hard Drive</t>
   </si>
 </sst>
 </file>
@@ -512,82 +533,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
